--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,472 +43,463 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beautifully</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>fantastic</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>helps</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>wedding</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>everyday</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>ease</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>decor</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cookies</t>
+  </si>
+  <si>
     <t>dough</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>ice</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>lot</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>fast</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>top</t>
   </si>
   <si>
     <t>sharp</t>
   </si>
   <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -872,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -941,13 +932,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -959,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -968,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -991,13 +982,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.675</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1009,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1033,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1041,13 +1032,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.575</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1059,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1083,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1091,13 +1082,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4528301886792453</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1109,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1133,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1141,13 +1132,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.36</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1159,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1183,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1191,13 +1182,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3565891472868217</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1209,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8529411764705882</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1233,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>95</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1241,13 +1232,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3434343434343434</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1259,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8421052631578947</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>559</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>559</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1283,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1315,13 +1306,13 @@
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8260869565217391</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1333,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1341,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1888888888888889</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1359,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8222222222222222</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1391,13 +1382,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.145631067961165</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1409,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7954545454545454</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1433,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1441,13 +1432,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1297297297297297</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1459,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1483,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1491,13 +1482,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L14">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="M14">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1509,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1517,13 +1508,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7016949152542373</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L15">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1543,13 +1534,13 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7012987012987013</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L16">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="M16">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1561,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1569,13 +1560,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6956521739130435</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1587,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1595,13 +1586,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1613,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1621,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.684931506849315</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1639,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1647,13 +1638,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.651685393258427</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L20">
-        <v>812</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>812</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>434</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1673,13 +1664,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1699,13 +1690,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1725,13 +1716,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1751,13 +1742,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6197183098591549</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1777,13 +1768,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.6452648475120385</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>804</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>804</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1803,13 +1794,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1821,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1829,13 +1820,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6140350877192983</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1847,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1855,13 +1846,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1873,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1881,13 +1872,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6031746031746031</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1899,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1907,13 +1898,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6029411764705882</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1925,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1933,13 +1924,13 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5748502994011976</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L31">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1951,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1959,13 +1950,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.59375</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1977,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1985,13 +1976,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2003,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2011,13 +2002,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5686274509803921</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2029,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2037,13 +2028,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5641025641025641</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2055,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2063,13 +2054,13 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5571428571428572</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2081,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2089,13 +2080,13 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5555555555555556</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2107,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2115,13 +2106,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5542857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L38">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2133,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2141,13 +2132,13 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5542168674698795</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2159,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2167,13 +2158,13 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5288461538461539</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L40">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2185,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2193,13 +2184,13 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5230769230769231</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2211,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2219,13 +2210,13 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5213675213675214</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L42">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2237,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2245,13 +2236,13 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5172413793103449</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2263,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2271,13 +2262,13 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2289,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2297,13 +2288,13 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2315,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2323,13 +2314,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4918032786885246</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2341,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2349,13 +2340,13 @@
         <v>64</v>
       </c>
       <c r="K47">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2367,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2375,13 +2366,13 @@
         <v>65</v>
       </c>
       <c r="K48">
-        <v>0.4897959183673469</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2393,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2401,13 +2392,13 @@
         <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4605263157894737</v>
+        <v>0.47</v>
       </c>
       <c r="L49">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2419,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2427,13 +2418,13 @@
         <v>67</v>
       </c>
       <c r="K50">
-        <v>0.4511278195488722</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L50">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2445,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2453,13 +2444,13 @@
         <v>68</v>
       </c>
       <c r="K51">
-        <v>0.4444444444444444</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2471,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2479,13 +2470,13 @@
         <v>69</v>
       </c>
       <c r="K52">
-        <v>0.4390243902439024</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2497,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2505,13 +2496,13 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>0.4342105263157895</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2523,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2531,13 +2522,13 @@
         <v>71</v>
       </c>
       <c r="K54">
-        <v>0.4333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2549,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2557,13 +2548,13 @@
         <v>72</v>
       </c>
       <c r="K55">
-        <v>0.4320987654320987</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2575,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2583,13 +2574,13 @@
         <v>73</v>
       </c>
       <c r="K56">
-        <v>0.4285714285714285</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2601,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2609,13 +2600,13 @@
         <v>74</v>
       </c>
       <c r="K57">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2627,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2635,13 +2626,13 @@
         <v>75</v>
       </c>
       <c r="K58">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2653,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2661,13 +2652,13 @@
         <v>76</v>
       </c>
       <c r="K59">
-        <v>0.4210526315789473</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2679,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2687,13 +2678,13 @@
         <v>77</v>
       </c>
       <c r="K60">
-        <v>0.4126984126984127</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="L60">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="M60">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2705,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2713,13 +2704,13 @@
         <v>78</v>
       </c>
       <c r="K61">
-        <v>0.4096385542168675</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L61">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2731,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2739,13 +2730,13 @@
         <v>79</v>
       </c>
       <c r="K62">
-        <v>0.4046692607003891</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L62">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="M62">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2757,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>153</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2765,13 +2756,13 @@
         <v>80</v>
       </c>
       <c r="K63">
-        <v>0.3963963963963964</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L63">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2783,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2791,13 +2782,13 @@
         <v>81</v>
       </c>
       <c r="K64">
-        <v>0.3846153846153846</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2809,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2817,13 +2808,13 @@
         <v>82</v>
       </c>
       <c r="K65">
-        <v>0.3700980392156863</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L65">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2835,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>257</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2843,13 +2834,13 @@
         <v>83</v>
       </c>
       <c r="K66">
-        <v>0.3676470588235294</v>
+        <v>0.3726027397260274</v>
       </c>
       <c r="L66">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2861,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>43</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2869,13 +2860,13 @@
         <v>84</v>
       </c>
       <c r="K67">
-        <v>0.363013698630137</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L67">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2887,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>465</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2895,25 +2886,25 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>0.3617021276595745</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L68">
         <v>17</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2921,13 +2912,13 @@
         <v>86</v>
       </c>
       <c r="K69">
-        <v>0.3548387096774194</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2939,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2947,13 +2938,13 @@
         <v>87</v>
       </c>
       <c r="K70">
-        <v>0.3513513513513514</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L70">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2965,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2973,13 +2964,13 @@
         <v>88</v>
       </c>
       <c r="K71">
-        <v>0.3478260869565217</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2991,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2999,13 +2990,13 @@
         <v>89</v>
       </c>
       <c r="K72">
-        <v>0.3272727272727273</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L72">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M72">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3017,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3025,13 +3016,13 @@
         <v>90</v>
       </c>
       <c r="K73">
-        <v>0.316546762589928</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L73">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M73">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3043,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3051,13 +3042,13 @@
         <v>91</v>
       </c>
       <c r="K74">
-        <v>0.3055555555555556</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L74">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M74">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3069,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3077,13 +3068,13 @@
         <v>92</v>
       </c>
       <c r="K75">
-        <v>0.2941176470588235</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="M75">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3095,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>36</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3103,13 +3094,13 @@
         <v>93</v>
       </c>
       <c r="K76">
-        <v>0.2913907284768212</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L76">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M76">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3121,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3129,13 +3120,13 @@
         <v>94</v>
       </c>
       <c r="K77">
-        <v>0.2871287128712871</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L77">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M77">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3147,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3155,13 +3146,13 @@
         <v>95</v>
       </c>
       <c r="K78">
-        <v>0.2857142857142857</v>
+        <v>0.269396551724138</v>
       </c>
       <c r="L78">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="M78">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3170,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>95</v>
+        <v>678</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3181,25 +3172,25 @@
         <v>96</v>
       </c>
       <c r="K79">
-        <v>0.2767857142857143</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M79">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3207,25 +3198,25 @@
         <v>97</v>
       </c>
       <c r="K80">
-        <v>0.2727272727272727</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L80">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>152</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3233,13 +3224,13 @@
         <v>98</v>
       </c>
       <c r="K81">
-        <v>0.2666666666666667</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M81">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3251,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3259,13 +3250,13 @@
         <v>99</v>
       </c>
       <c r="K82">
-        <v>0.265625</v>
+        <v>0.25</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3277,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3285,13 +3276,13 @@
         <v>100</v>
       </c>
       <c r="K83">
-        <v>0.265625</v>
+        <v>0.25</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3303,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3311,13 +3302,13 @@
         <v>101</v>
       </c>
       <c r="K84">
-        <v>0.2638888888888889</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L84">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3329,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3337,13 +3328,13 @@
         <v>102</v>
       </c>
       <c r="K85">
-        <v>0.2619047619047619</v>
+        <v>0.234375</v>
       </c>
       <c r="L85">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3355,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3363,25 +3354,25 @@
         <v>103</v>
       </c>
       <c r="K86">
-        <v>0.2588235294117647</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L86">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M86">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3389,13 +3380,13 @@
         <v>104</v>
       </c>
       <c r="K87">
-        <v>0.2572658772874058</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="L87">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="M87">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3407,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>690</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3415,13 +3406,13 @@
         <v>105</v>
       </c>
       <c r="K88">
-        <v>0.25</v>
+        <v>0.2250639386189258</v>
       </c>
       <c r="L88">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="M88">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3433,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>54</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3441,13 +3432,13 @@
         <v>106</v>
       </c>
       <c r="K89">
-        <v>0.25</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3459,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3467,13 +3458,13 @@
         <v>107</v>
       </c>
       <c r="K90">
-        <v>0.2461538461538462</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L90">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3485,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3493,13 +3484,13 @@
         <v>108</v>
       </c>
       <c r="K91">
-        <v>0.2439024390243902</v>
+        <v>0.2225165562913907</v>
       </c>
       <c r="L91">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M91">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3511,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>124</v>
+        <v>587</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3519,13 +3510,13 @@
         <v>109</v>
       </c>
       <c r="K92">
-        <v>0.2281879194630873</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="L92">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M92">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3537,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3545,25 +3536,25 @@
         <v>110</v>
       </c>
       <c r="K93">
-        <v>0.2258064516129032</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>72</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3571,13 +3562,13 @@
         <v>111</v>
       </c>
       <c r="K94">
-        <v>0.2251655629139073</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L94">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3589,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>585</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3597,13 +3588,13 @@
         <v>112</v>
       </c>
       <c r="K95">
-        <v>0.2207792207792208</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="L95">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M95">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3615,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3623,13 +3614,13 @@
         <v>113</v>
       </c>
       <c r="K96">
-        <v>0.22</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="L96">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3641,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3649,13 +3640,13 @@
         <v>114</v>
       </c>
       <c r="K97">
-        <v>0.2168674698795181</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L97">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M97">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3667,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3675,25 +3666,25 @@
         <v>115</v>
       </c>
       <c r="K98">
-        <v>0.2105263157894737</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3701,25 +3692,25 @@
         <v>116</v>
       </c>
       <c r="K99">
-        <v>0.2074263764404609</v>
+        <v>0.1943573667711599</v>
       </c>
       <c r="L99">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="M99">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="N99">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>619</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3727,13 +3718,13 @@
         <v>117</v>
       </c>
       <c r="K100">
-        <v>0.2051282051282051</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L100">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M100">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3745,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3753,13 +3744,13 @@
         <v>118</v>
       </c>
       <c r="K101">
-        <v>0.2018348623853211</v>
+        <v>0.19</v>
       </c>
       <c r="L101">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M101">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3771,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3779,13 +3770,13 @@
         <v>119</v>
       </c>
       <c r="K102">
-        <v>0.1976744186046512</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="L102">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M102">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3797,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3805,13 +3796,13 @@
         <v>120</v>
       </c>
       <c r="K103">
-        <v>0.1974921630094044</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L103">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M103">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3823,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>256</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3831,13 +3822,13 @@
         <v>121</v>
       </c>
       <c r="K104">
-        <v>0.1919191919191919</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M104">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3849,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3857,13 +3848,13 @@
         <v>122</v>
       </c>
       <c r="K105">
-        <v>0.1882352941176471</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="L105">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M105">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3875,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3883,13 +3874,13 @@
         <v>123</v>
       </c>
       <c r="K106">
-        <v>0.1840490797546012</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L106">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M106">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3901,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3909,25 +3900,25 @@
         <v>124</v>
       </c>
       <c r="K107">
-        <v>0.1777777777777778</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="L107">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M107">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N107">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O107">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3935,13 +3926,13 @@
         <v>125</v>
       </c>
       <c r="K108">
-        <v>0.1757575757575758</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L108">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="M108">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3953,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>136</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3961,13 +3952,13 @@
         <v>126</v>
       </c>
       <c r="K109">
-        <v>0.1756756756756757</v>
+        <v>0.162962962962963</v>
       </c>
       <c r="L109">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M109">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N109">
         <v>0.98</v>
@@ -3979,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>305</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3987,25 +3978,25 @@
         <v>127</v>
       </c>
       <c r="K110">
-        <v>0.1746411483253588</v>
+        <v>0.1599045346062052</v>
       </c>
       <c r="L110">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M110">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N110">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -4013,25 +4004,25 @@
         <v>128</v>
       </c>
       <c r="K111">
-        <v>0.1704545454545454</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M111">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>73</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -4039,13 +4030,13 @@
         <v>129</v>
       </c>
       <c r="K112">
-        <v>0.1692307692307692</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L112">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M112">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4057,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -4065,25 +4056,25 @@
         <v>130</v>
       </c>
       <c r="K113">
-        <v>0.1652892561983471</v>
+        <v>0.1522727272727273</v>
       </c>
       <c r="L113">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="M113">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N113">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>101</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -4091,13 +4082,13 @@
         <v>131</v>
       </c>
       <c r="K114">
-        <v>0.1644736842105263</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="L114">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M114">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4109,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>381</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -4117,13 +4108,13 @@
         <v>132</v>
       </c>
       <c r="K115">
-        <v>0.1634615384615385</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4135,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>87</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4143,25 +4134,25 @@
         <v>133</v>
       </c>
       <c r="K116">
-        <v>0.1576354679802956</v>
+        <v>0.1476793248945148</v>
       </c>
       <c r="L116">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M116">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4169,25 +4160,25 @@
         <v>134</v>
       </c>
       <c r="K117">
-        <v>0.1517241379310345</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L117">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M117">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N117">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>246</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4195,13 +4186,13 @@
         <v>135</v>
       </c>
       <c r="K118">
-        <v>0.1504424778761062</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L118">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M118">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4213,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4221,13 +4212,13 @@
         <v>136</v>
       </c>
       <c r="K119">
-        <v>0.1477272727272727</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="L119">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M119">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N119">
         <v>0.96</v>
@@ -4239,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4247,13 +4238,13 @@
         <v>137</v>
       </c>
       <c r="K120">
-        <v>0.1450381679389313</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="L120">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M120">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4265,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4273,13 +4264,13 @@
         <v>138</v>
       </c>
       <c r="K121">
-        <v>0.1444444444444444</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="L121">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M121">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4291,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4299,13 +4290,13 @@
         <v>139</v>
       </c>
       <c r="K122">
-        <v>0.1431818181818182</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="L122">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M122">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4317,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>377</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4325,13 +4316,13 @@
         <v>140</v>
       </c>
       <c r="K123">
-        <v>0.141025641025641</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L123">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M123">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4343,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4351,13 +4342,13 @@
         <v>141</v>
       </c>
       <c r="K124">
-        <v>0.138655462184874</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L124">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M124">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4369,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4377,25 +4368,25 @@
         <v>142</v>
       </c>
       <c r="K125">
-        <v>0.124390243902439</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="L125">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M125">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N125">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O125">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>359</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4403,13 +4394,13 @@
         <v>143</v>
       </c>
       <c r="K126">
-        <v>0.1162790697674419</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L126">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M126">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4421,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>114</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="10:17">
@@ -4429,13 +4420,13 @@
         <v>144</v>
       </c>
       <c r="K127">
-        <v>0.1081081081081081</v>
+        <v>0.1125</v>
       </c>
       <c r="L127">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M127">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4447,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="10:17">
@@ -4455,13 +4446,13 @@
         <v>145</v>
       </c>
       <c r="K128">
-        <v>0.1038961038961039</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="L128">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M128">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -4473,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="10:17">
@@ -4481,13 +4472,13 @@
         <v>146</v>
       </c>
       <c r="K129">
-        <v>0.1008064516129032</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L129">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M129">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -4499,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>223</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="10:17">
@@ -4507,25 +4498,25 @@
         <v>147</v>
       </c>
       <c r="K130">
-        <v>0.1006289308176101</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="L130">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M130">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N130">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O130">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>143</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="10:17">
@@ -4533,25 +4524,25 @@
         <v>148</v>
       </c>
       <c r="K131">
-        <v>0.09803921568627451</v>
+        <v>0.1</v>
       </c>
       <c r="L131">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="M131">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131">
-        <v>138</v>
+        <v>963</v>
       </c>
     </row>
     <row r="132" spans="10:17">
@@ -4559,13 +4550,13 @@
         <v>149</v>
       </c>
       <c r="K132">
-        <v>0.09615384615384616</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L132">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M132">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -4577,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>188</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="10:17">
@@ -4585,25 +4576,25 @@
         <v>150</v>
       </c>
       <c r="K133">
-        <v>0.09289617486338798</v>
+        <v>0.08177905308464849</v>
       </c>
       <c r="L133">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M133">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133">
-        <v>332</v>
+        <v>640</v>
       </c>
     </row>
     <row r="134" spans="10:17">
@@ -4611,25 +4602,25 @@
         <v>151</v>
       </c>
       <c r="K134">
-        <v>0.09269662921348315</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="L134">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="M134">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="N134">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O134">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>969</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="10:17">
@@ -4637,25 +4628,25 @@
         <v>152</v>
       </c>
       <c r="K135">
-        <v>0.09195402298850575</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="L135">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M135">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="N135">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O135">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>632</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="10:17">
@@ -4663,25 +4654,25 @@
         <v>153</v>
       </c>
       <c r="K136">
-        <v>0.09191176470588236</v>
+        <v>0.075</v>
       </c>
       <c r="L136">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M136">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q136">
-        <v>247</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="10:17">
@@ -4689,25 +4680,25 @@
         <v>154</v>
       </c>
       <c r="K137">
-        <v>0.08629441624365482</v>
+        <v>0.07393715341959335</v>
       </c>
       <c r="L137">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M137">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N137">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O137">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P137" t="b">
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>180</v>
+        <v>501</v>
       </c>
     </row>
     <row r="138" spans="10:17">
@@ -4715,13 +4706,13 @@
         <v>155</v>
       </c>
       <c r="K138">
-        <v>0.08500000000000001</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="L138">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M138">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -4733,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>183</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="10:17">
@@ -4741,25 +4732,25 @@
         <v>156</v>
       </c>
       <c r="K139">
-        <v>0.08196721311475409</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="L139">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M139">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N139">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O139">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="10:17">
@@ -4767,25 +4758,25 @@
         <v>157</v>
       </c>
       <c r="K140">
-        <v>0.08184143222506395</v>
+        <v>0.05782312925170068</v>
       </c>
       <c r="L140">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M140">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N140">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="O140">
-        <v>0.08999999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="P140" t="b">
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>359</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="10:17">
@@ -4793,25 +4784,25 @@
         <v>158</v>
       </c>
       <c r="K141">
-        <v>0.06602953953084274</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="L141">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M141">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N141">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O141">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P141" t="b">
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>1075</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="142" spans="10:17">
@@ -4819,25 +4810,25 @@
         <v>159</v>
       </c>
       <c r="K142">
-        <v>0.06295399515738499</v>
+        <v>0.05248618784530387</v>
       </c>
       <c r="L142">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M142">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N142">
-        <v>0.96</v>
+        <v>0.68</v>
       </c>
       <c r="O142">
-        <v>0.04000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="P142" t="b">
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>387</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="10:17">
@@ -4845,25 +4836,25 @@
         <v>160</v>
       </c>
       <c r="K143">
-        <v>0.06143344709897611</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L143">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M143">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N143">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="O143">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P143" t="b">
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>275</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="10:17">
@@ -4871,13 +4862,13 @@
         <v>161</v>
       </c>
       <c r="K144">
-        <v>0.05555555555555555</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="L144">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M144">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N144">
         <v>0.9399999999999999</v>
@@ -4889,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>510</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="10:17">
@@ -4897,102 +4888,24 @@
         <v>162</v>
       </c>
       <c r="K145">
-        <v>0.05263157894736842</v>
+        <v>0.03693931398416887</v>
       </c>
       <c r="L145">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M145">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N145">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="O145">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="P145" t="b">
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="146" spans="10:17">
-      <c r="J146" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K146">
-        <v>0.05</v>
-      </c>
-      <c r="L146">
-        <v>26</v>
-      </c>
-      <c r="M146">
-        <v>28</v>
-      </c>
-      <c r="N146">
-        <v>0.93</v>
-      </c>
-      <c r="O146">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P146" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q146">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="147" spans="10:17">
-      <c r="J147" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K147">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="L147">
-        <v>16</v>
-      </c>
-      <c r="M147">
-        <v>19</v>
-      </c>
-      <c r="N147">
-        <v>0.84</v>
-      </c>
-      <c r="O147">
-        <v>0.16</v>
-      </c>
-      <c r="P147" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q147">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="148" spans="10:17">
-      <c r="J148" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K148">
-        <v>0.03693931398416887</v>
-      </c>
-      <c r="L148">
-        <v>28</v>
-      </c>
-      <c r="M148">
-        <v>37</v>
-      </c>
-      <c r="N148">
-        <v>0.76</v>
-      </c>
-      <c r="O148">
-        <v>0.24</v>
-      </c>
-      <c r="P148" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q148">
         <v>730</v>
       </c>
     </row>
